--- a/html/inf-oge/2019-09-23/inf-oge-2019-09-23-answers.xlsx
+++ b/html/inf-oge/2019-09-23/inf-oge-2019-09-23-answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InDev\OneDrive\ЕГЭ Информатика\ege-examples\html\inf-oge\2019-09-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="14_{CD612B3A-5952-44FB-99CB-75432B46A31B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FF0ADD7B-E144-4FAE-9A1B-7A67DAD1883B}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="14_{CD612B3A-5952-44FB-99CB-75432B46A31B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C665AD99-568F-4958-8242-434DD7F65DCD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F128528-2A5A-4E15-BBB8-FA40BB8F617C}"/>
+    <workbookView minimized="1" xWindow="480" yWindow="0" windowWidth="8550" windowHeight="10920" activeTab="2" xr2:uid="{5F128528-2A5A-4E15-BBB8-FA40BB8F617C}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AF1326-378E-4E84-A191-B2081BB886E1}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162547C9-E7CF-4CC7-848B-0DAFA35B220E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="51">
         <v>16</v>
